--- a/results/mp/logistic/corona/confidence/126/stop-words-masking-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/stop-words-masking-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="79">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,55 +40,64 @@
     <t>name</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>crisis</t>
+    <t>die</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>forced</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>falling</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>fuck</t>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>lower</t>
   </si>
   <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>lower</t>
+    <t>cut</t>
   </si>
   <si>
     <t>empty</t>
@@ -115,130 +124,133 @@
     <t>19</t>
   </si>
   <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>strong</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>gt</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>save</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>alert</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>corona</t>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>shop</t>
   </si>
 </sst>
 </file>
@@ -596,7 +608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -604,10 +616,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="J1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -665,13 +677,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8235294117647058</v>
+        <v>0.8082191780821918</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -683,10 +695,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K3">
         <v>0.9565217391304348</v>
@@ -715,13 +727,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.797945205479452</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C4">
-        <v>233</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>233</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -733,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -757,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -765,13 +777,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7894736842105263</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -783,19 +795,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K5">
-        <v>0.8916666666666667</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -807,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -815,13 +827,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7586206896551724</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -833,19 +845,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K6">
-        <v>0.8846153846153846</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="L6">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="M6">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -857,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -865,13 +877,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7567567567567568</v>
+        <v>0.76</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -883,19 +895,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K7">
-        <v>0.8571428571428571</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="L7">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="M7">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -907,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -915,13 +927,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7333333333333333</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -933,19 +945,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K8">
-        <v>0.8485639686684073</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L8">
-        <v>325</v>
+        <v>96</v>
       </c>
       <c r="M8">
-        <v>325</v>
+        <v>96</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -957,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -965,13 +977,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6666666666666666</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C9">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -983,19 +995,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K9">
-        <v>0.8181818181818182</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1015,13 +1027,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6101694915254238</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C10">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1033,19 +1045,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K10">
-        <v>0.8148148148148148</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="L10">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="M10">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1057,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1065,13 +1077,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.55</v>
+        <v>0.7</v>
       </c>
       <c r="C11">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1083,19 +1095,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K11">
-        <v>0.8103448275862069</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L11">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="M11">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1107,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1115,13 +1127,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5426356589147286</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="C12">
-        <v>280</v>
+        <v>34</v>
       </c>
       <c r="D12">
-        <v>280</v>
+        <v>34</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1133,19 +1145,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>236</v>
+        <v>25</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K12">
-        <v>0.8055555555555556</v>
+        <v>0.8172323759791122</v>
       </c>
       <c r="L12">
-        <v>29</v>
+        <v>313</v>
       </c>
       <c r="M12">
-        <v>29</v>
+        <v>313</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1157,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>7</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1165,13 +1177,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5343915343915344</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="C13">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="D13">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1183,19 +1195,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K13">
-        <v>0.796875</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L13">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="M13">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1207,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1215,13 +1227,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5302013422818792</v>
+        <v>0.5608465608465608</v>
       </c>
       <c r="C14">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="D14">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1233,10 +1245,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K14">
         <v>0.795774647887324</v>
@@ -1265,13 +1277,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4901960784313725</v>
+        <v>0.5348837209302325</v>
       </c>
       <c r="C15">
-        <v>25</v>
+        <v>276</v>
       </c>
       <c r="D15">
-        <v>25</v>
+        <v>276</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1283,19 +1295,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>26</v>
+        <v>240</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K15">
-        <v>0.7924528301886793</v>
+        <v>0.7875</v>
       </c>
       <c r="L15">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="M15">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1307,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1315,13 +1327,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4871794871794872</v>
+        <v>0.5234899328859061</v>
       </c>
       <c r="C16">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="D16">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1333,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K16">
-        <v>0.7804878048780488</v>
+        <v>0.78125</v>
       </c>
       <c r="L16">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="M16">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1357,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1365,49 +1377,49 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4363636363636363</v>
+        <v>0.5</v>
       </c>
       <c r="C17">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>20</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K17">
+        <v>0.7735849056603774</v>
+      </c>
+      <c r="L17">
+        <v>82</v>
+      </c>
+      <c r="M17">
+        <v>82</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>24</v>
-      </c>
-      <c r="D17">
-        <v>24</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>31</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K17">
-        <v>0.75625</v>
-      </c>
-      <c r="L17">
-        <v>121</v>
-      </c>
-      <c r="M17">
-        <v>121</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1415,13 +1427,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4266666666666667</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C18">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D18">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1433,19 +1445,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K18">
-        <v>0.75</v>
+        <v>0.7674418604651163</v>
       </c>
       <c r="L18">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="M18">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1457,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1465,13 +1477,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3571428571428572</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="C19">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D19">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1483,19 +1495,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K19">
-        <v>0.7446808510638298</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L19">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="M19">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1507,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1515,13 +1527,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3111111111111111</v>
+        <v>0.375</v>
       </c>
       <c r="C20">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D20">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1533,19 +1545,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K20">
-        <v>0.7291666666666666</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L20">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="M20">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1557,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1565,13 +1577,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2987012987012987</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C21">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D21">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1583,19 +1595,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K21">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="L21">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M21">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1607,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1615,13 +1627,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.25</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C22">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="D22">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1633,19 +1645,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>189</v>
+        <v>35</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K22">
-        <v>0.6857142857142857</v>
+        <v>0.75</v>
       </c>
       <c r="L22">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M22">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1657,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1665,13 +1677,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.1581769436997319</v>
+        <v>0.2888888888888889</v>
       </c>
       <c r="C23">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="D23">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1683,19 +1695,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>314</v>
+        <v>64</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K23">
-        <v>0.6825396825396826</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L23">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="M23">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1707,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1715,13 +1727,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.09333333333333334</v>
+        <v>0.2467532467532468</v>
       </c>
       <c r="C24">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D24">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1733,19 +1745,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>272</v>
+        <v>58</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K24">
-        <v>0.6785714285714286</v>
+        <v>0.725</v>
       </c>
       <c r="L24">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="M24">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1757,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1765,37 +1777,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.02415875754961173</v>
+        <v>0.246031746031746</v>
       </c>
       <c r="C25">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="D25">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="E25">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>1131</v>
+        <v>190</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K25">
-        <v>0.6744186046511628</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L25">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M25">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1815,37 +1827,37 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01516129032258065</v>
+        <v>0.1662198391420912</v>
       </c>
       <c r="C26">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D26">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E26">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>3053</v>
+        <v>311</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K26">
-        <v>0.6411764705882353</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L26">
-        <v>218</v>
+        <v>24</v>
       </c>
       <c r="M26">
-        <v>218</v>
+        <v>24</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1857,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>122</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1865,115 +1877,187 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.01358313817330211</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="C27">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D27">
+        <v>32</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>268</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K27">
+        <v>0.6558823529411765</v>
+      </c>
+      <c r="L27">
+        <v>223</v>
+      </c>
+      <c r="M27">
+        <v>223</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>0.01986183074265976</v>
+      </c>
+      <c r="C28">
+        <v>23</v>
+      </c>
+      <c r="D28">
+        <v>26</v>
+      </c>
+      <c r="E28">
+        <v>0.12</v>
+      </c>
+      <c r="F28">
+        <v>0.88</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1135</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K28">
+        <v>0.6067796610169491</v>
+      </c>
+      <c r="L28">
+        <v>179</v>
+      </c>
+      <c r="M28">
+        <v>179</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>0.01838709677419355</v>
+      </c>
+      <c r="C29">
+        <v>57</v>
+      </c>
+      <c r="D29">
+        <v>64</v>
+      </c>
+      <c r="E29">
+        <v>0.11</v>
+      </c>
+      <c r="F29">
+        <v>0.89</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>3043</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K29">
+        <v>0.6063829787234043</v>
+      </c>
+      <c r="L29">
+        <v>57</v>
+      </c>
+      <c r="M29">
+        <v>57</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
         <v>37</v>
       </c>
-      <c r="E27">
-        <v>0.22</v>
-      </c>
-      <c r="F27">
-        <v>0.78</v>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>2106</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K27">
-        <v>0.6276595744680851</v>
-      </c>
-      <c r="L27">
-        <v>59</v>
-      </c>
-      <c r="M27">
-        <v>59</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K28">
-        <v>0.5846153846153846</v>
-      </c>
-      <c r="L28">
-        <v>38</v>
-      </c>
-      <c r="M28">
-        <v>38</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K29">
-        <v>0.5830508474576271</v>
-      </c>
-      <c r="L29">
-        <v>172</v>
-      </c>
-      <c r="M29">
-        <v>172</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+      <c r="B30">
+        <v>0.01218940459446789</v>
+      </c>
+      <c r="C30">
+        <v>26</v>
+      </c>
+      <c r="D30">
+        <v>36</v>
+      </c>
+      <c r="E30">
+        <v>0.28</v>
+      </c>
+      <c r="F30">
+        <v>0.72</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>2107</v>
+      </c>
       <c r="J30" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K30">
-        <v>0.58</v>
+        <v>0.5842696629213483</v>
       </c>
       <c r="L30">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="M30">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1985,21 +2069,45 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:17">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>0.006315124723713293</v>
+      </c>
+      <c r="C31">
+        <v>20</v>
+      </c>
+      <c r="D31">
+        <v>54</v>
+      </c>
+      <c r="E31">
+        <v>0.63</v>
+      </c>
+      <c r="F31">
+        <v>0.37</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>3147</v>
+      </c>
       <c r="J31" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K31">
-        <v>0.5690376569037657</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L31">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="M31">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2011,21 +2119,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>103</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K32">
-        <v>0.550561797752809</v>
+        <v>0.5732217573221757</v>
       </c>
       <c r="L32">
-        <v>49</v>
+        <v>137</v>
       </c>
       <c r="M32">
-        <v>49</v>
+        <v>137</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2037,21 +2145,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>40</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K33">
-        <v>0.5098039215686274</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L33">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="M33">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2063,21 +2171,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K34">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L34">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="M34">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2089,21 +2197,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K35">
-        <v>0.4888888888888889</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L35">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="M35">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2115,21 +2223,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K36">
-        <v>0.4523809523809524</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="L36">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M36">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2141,47 +2249,47 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K37">
-        <v>0.410958904109589</v>
+        <v>0.4634146341463415</v>
       </c>
       <c r="L37">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M37">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K38">
         <v>0.3333333333333333</v>
       </c>
       <c r="L38">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M38">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2193,21 +2301,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K39">
-        <v>0.3205128205128205</v>
+        <v>0.3287671232876712</v>
       </c>
       <c r="L39">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M39">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2219,21 +2327,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K40">
-        <v>0.3125</v>
+        <v>0.328125</v>
       </c>
       <c r="L40">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M40">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2245,85 +2353,111 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K41">
-        <v>0.212962962962963</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="L41">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M41">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N41">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>85</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K42">
-        <v>0.02111111111111111</v>
+        <v>0.3114754098360656</v>
       </c>
       <c r="L42">
         <v>19</v>
       </c>
       <c r="M42">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N42">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>881</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K43">
-        <v>0.009416195856873822</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="L43">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M43">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="N43">
-        <v>0.67</v>
+        <v>0.95</v>
       </c>
       <c r="O43">
-        <v>0.33</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>3156</v>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K44">
+        <v>0.01068846274756366</v>
+      </c>
+      <c r="L44">
+        <v>34</v>
+      </c>
+      <c r="M44">
+        <v>54</v>
+      </c>
+      <c r="N44">
+        <v>0.63</v>
+      </c>
+      <c r="O44">
+        <v>0.37</v>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>3147</v>
       </c>
     </row>
   </sheetData>
